--- a/biology/Botanique/Astragale_(flore)/Astragale_(flore).xlsx
+++ b/biology/Botanique/Astragale_(flore)/Astragale_(flore).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Astragalus
-Les astragales sont des plantes de la famille des Fabacées appartenant au genre Astragalus. Avec plus de 2 500 espèces, le genre Astragalus est le plus important des Spermaphytes quant au nombre d'espèces[3].
-Une partie des espèces correspondant au sous-genre Tragacantha, et contenant les espèces produisant la gomme adragante a été séparée du genre Astragalus pour former le genre Astracantha[4], qui a depuis été réintégré au genre Astragalus en 1997, faisant suite aux travaux de S. Zarre et de D. Podlech[5].
+Les astragales sont des plantes de la famille des Fabacées appartenant au genre Astragalus. Avec plus de 2 500 espèces, le genre Astragalus est le plus important des Spermaphytes quant au nombre d'espèces.
+Une partie des espèces correspondant au sous-genre Tragacantha, et contenant les espèces produisant la gomme adragante a été séparée du genre Astragalus pour former le genre Astracantha, qui a depuis été réintégré au genre Astragalus en 1997, faisant suite aux travaux de S. Zarre et de D. Podlech.
 </t>
         </is>
       </c>
@@ -513,11 +525,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les très nombreuses espèces d’Astragalus présentent une grande variété. Elles peuvent être, selon les espèces, annuelles ou pérennes, herbacées ou buissonnantes, et présenter des poils (blancs ou noirs) ou des épines ou encore être glabres. Les feuilles sont pennées (voir l'article Forme foliaire), mais encore une fois, la disposition des folioles varie selon les espèces : la feuille peut être paripennée, imparipennée, et dans de rares cas, les folioles sont disposés en verticille . Les stipules précédant les feuilles peuvent être verts ou membraneux, libres ou adhérent au pétiole, et engainent souvent la tige[6].
-Les inflorescences sont des grappes qui apparaissent au niveau de bourgeons axillaires. Elles peuvent être pédonculées ou sessiles, lâches ou denses, à fleurs peu nombreuses ou nombreuses selon les espèces. Le calice présente des sépales souvent velus du côté interne, soudés en forme de cloche ou de tube, avec 5 dents libres ; ce calice est parfois marcescent, voire se développe en restant sur le fruit[6]. La corolle est, comme chez la grande majorité des Fabaceae, asymétrique. Les étamines sont au nombre de 10 et l'ovaire contient de nombreux ovules[7].
-Le fruit typique des Fabacées, la gousse multiséminée à déhiscence longitudinale, subit une modification morphologique[8] : il se développe par introflexion une fausse-cloison longitudinale (issue de l'extension de la nervure médiane), la gousse étant le plus souvent à deux loges partiellement ou totalement individualisées. Les graines sont le plus souvent réniformes[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les très nombreuses espèces d’Astragalus présentent une grande variété. Elles peuvent être, selon les espèces, annuelles ou pérennes, herbacées ou buissonnantes, et présenter des poils (blancs ou noirs) ou des épines ou encore être glabres. Les feuilles sont pennées (voir l'article Forme foliaire), mais encore une fois, la disposition des folioles varie selon les espèces : la feuille peut être paripennée, imparipennée, et dans de rares cas, les folioles sont disposés en verticille . Les stipules précédant les feuilles peuvent être verts ou membraneux, libres ou adhérent au pétiole, et engainent souvent la tige.
+Les inflorescences sont des grappes qui apparaissent au niveau de bourgeons axillaires. Elles peuvent être pédonculées ou sessiles, lâches ou denses, à fleurs peu nombreuses ou nombreuses selon les espèces. Le calice présente des sépales souvent velus du côté interne, soudés en forme de cloche ou de tube, avec 5 dents libres ; ce calice est parfois marcescent, voire se développe en restant sur le fruit. La corolle est, comme chez la grande majorité des Fabaceae, asymétrique. Les étamines sont au nombre de 10 et l'ovaire contient de nombreux ovules.
+Le fruit typique des Fabacées, la gousse multiséminée à déhiscence longitudinale, subit une modification morphologique : il se développe par introflexion une fausse-cloison longitudinale (issue de l'extension de la nervure médiane), la gousse étant le plus souvent à deux loges partiellement ou totalement individualisées. Les graines sont le plus souvent réniformes.
 </t>
         </is>
       </c>
@@ -548,8 +562,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Flore de France
-Astragalus alopecuroides L. -  Astragale fausse Queue-de-renard
+          <t>Flore de France</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astragalus alopecuroides L. -  Astragale fausse Queue-de-renard
 Astragalus alopecurus Pall. - Queue de renard des Alpes, Astragale vulpin
 Astragalus alpinus  L. - Astragale des Alpes
 Astragalus australis (L.) Lam. - Astragale du Sud
@@ -566,14 +585,84 @@
 Astragalus tragacantha  L. - Astragale de Marseille
 Astragalus onobrychis L. - Astragale esparcette ou Fausse Esparcette
 Astragalus sempervirens Lam. - Astragale toujours vert ou Astragale aristé
-Espèces nord-américaines
-Astragalus lentiginosus
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Astragale_(flore)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragale_(flore)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Espèces nord-américaines</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Astragalus lentiginosus
 Astragalus amphioxys (Gray)
 Astragalus crassicarpus (caryocarpus) - Prune de terre nord-américaine
 Astragalus nutzotinensis J.Rousseau
 …
-Liste des espèces
-Selon ITIS      (6 févr. 2012)[9] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Astragale_(flore)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Astragale_(flore)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principales espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon ITIS      (6 févr. 2012) :
 Astragalus accidens S. Watson
 Astragalus accumbens E. Sheld.
 Astragalus ackermanii Barneby
